--- a/tests/output/COVID-19 Digital Certificate VEERA VENKATA S YAGA_output.xlsx
+++ b/tests/output/COVID-19 Digital Certificate VEERA VENKATA S YAGA_output.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Table_1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="All_Text" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Page_1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,126 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Vaccinations</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Dates received</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Pfizer Comirnaty</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>25 Oct 2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Disclaimer</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>This certificate shows your COVID-19 vaccination details as reported to the Australian Immunisation Register by</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>your vaccination provider.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Every effort is made to ensure that the information contained on the Australian Immunisation Register is correct.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>The data is based on information provided by vaccination providers and the accuracy of data is dependent on the</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>quality and timeliness of information provided.</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>If any of the details are not correct, please ask your vaccination provider to provide the correct details. They can</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>call us on 1800 653 809 (call charges may apply).</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>If you have any questions about this certificate please call the Australian Immunisation Register on 1800 653 809.</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="F1:BP21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,32 +422,201 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>COVID-19 digital certificate
-Name Date of birth
-VEERA VENKATA S YAGA 15 Apr 1966
-Document number
-1002 3498 6157
-Valid from
-25 Oct 2022
-Vaccinations Dates received
-Pfizer Comirnaty 25 Oct 2022
-Disclaimer
-This certificate shows your COVID-19 vaccination details as reported to the Australian Immunisation Register by
-your vaccination provider.
-Every effort is made to ensure that the information contained on the Australian Immunisation Register is correct.
-The data is based on information provided by vaccination providers and the accuracy of data is dependent on the
-quality and timeliness of information provided.
-If any of the details are not correct, please ask your vaccination provider to provide the correct details. They can
-call us on 1800 653 809 (call charges may apply).
-If you have any questions about this certificate please call the Australian Immunisation Register on 1800 653 809.
-Version Date generated
-v2022.12.03 10 Jan 2023\n\n--- End of Page 1 ---\n\n</t>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>COVID-19 digital certificate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>Date of birth</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>VEERA VENKATA S YAGA</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>15 Apr 1966</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>Document number</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>1002 3498 6157</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Valid from</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>25 Oct 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Vaccinations</t>
+        </is>
+      </c>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>Dates received</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Pfizer Comirnaty</t>
+        </is>
+      </c>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>25 Oct 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Disclaimer</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>This certificate shows your COVID-19 vaccination details as reported to the Australian Immunisation Register by</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>your vaccination provider.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Every effort is made to ensure that the information contained on the Australian Immunisation Register is correct.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>The data is based on information provided by vaccination providers and the accuracy of data is dependent on the</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>quality and timeliness of information provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>If any of the details are not correct, please ask your vaccination provider to provide the correct details. They can</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>call us on 1800 653 809 (call charges may apply).</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>If you have any questions about this certificate please call the Australian Immunisation Register on 1800 653 809.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="BG19" t="inlineStr">
+        <is>
+          <t>Date generated</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="BI20" t="inlineStr">
+        <is>
+          <t>10 Jan 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>v2022.12.03</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="I7:T7"/>
+    <mergeCell ref="BB8:BM8"/>
+    <mergeCell ref="I6:P6"/>
+    <mergeCell ref="BE9:BM9"/>
+    <mergeCell ref="F14:BO14"/>
+    <mergeCell ref="F13:BN13"/>
+    <mergeCell ref="F11:BO11"/>
+    <mergeCell ref="AY5:BM5"/>
+    <mergeCell ref="T1:AZ1"/>
+    <mergeCell ref="F15:AE15"/>
+    <mergeCell ref="AZ4:BM4"/>
+    <mergeCell ref="I3:AH3"/>
+    <mergeCell ref="BI20:BP20"/>
+    <mergeCell ref="I9:T9"/>
+    <mergeCell ref="F18:BO18"/>
+    <mergeCell ref="F16:BN16"/>
+    <mergeCell ref="BD2:BM2"/>
+    <mergeCell ref="BG19:BP19"/>
+    <mergeCell ref="BB3:BM3"/>
+    <mergeCell ref="F17:AG17"/>
+    <mergeCell ref="F12:T12"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tests/output/COVID-19 Digital Certificate VEERA VENKATA S YAGA_output.xlsx
+++ b/tests/output/COVID-19 Digital Certificate VEERA VENKATA S YAGA_output.xlsx
@@ -413,210 +413,978 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="F1:BP21"/>
+  <dimension ref="O1:FW21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="0.4960666666666667" customWidth="1" min="1" max="1"/>
+    <col width="0.4960666666666667" customWidth="1" min="2" max="2"/>
+    <col width="0.4960666666666667" customWidth="1" min="3" max="3"/>
+    <col width="0.4960666666666667" customWidth="1" min="4" max="4"/>
+    <col width="0.4960666666666667" customWidth="1" min="5" max="5"/>
+    <col width="0.4960666666666667" customWidth="1" min="6" max="6"/>
+    <col width="0.4960666666666667" customWidth="1" min="7" max="7"/>
+    <col width="0.4960666666666667" customWidth="1" min="8" max="8"/>
+    <col width="0.4960666666666667" customWidth="1" min="9" max="9"/>
+    <col width="0.4960666666666667" customWidth="1" min="10" max="10"/>
+    <col width="0.4960666666666667" customWidth="1" min="11" max="11"/>
+    <col width="0.4960666666666667" customWidth="1" min="12" max="12"/>
+    <col width="0.4960666666666667" customWidth="1" min="13" max="13"/>
+    <col width="0.4960666666666667" customWidth="1" min="14" max="14"/>
+    <col width="0.4960666666666667" customWidth="1" min="15" max="15"/>
+    <col width="0.4960666666666667" customWidth="1" min="16" max="16"/>
+    <col width="0.4960666666666667" customWidth="1" min="17" max="17"/>
+    <col width="0.4960666666666667" customWidth="1" min="18" max="18"/>
+    <col width="0.4960666666666667" customWidth="1" min="19" max="19"/>
+    <col width="0.4960666666666667" customWidth="1" min="20" max="20"/>
+    <col width="0.4960666666666667" customWidth="1" min="21" max="21"/>
+    <col width="0.4960666666666667" customWidth="1" min="22" max="22"/>
+    <col width="0.4960666666666667" customWidth="1" min="23" max="23"/>
+    <col width="0.4960666666666667" customWidth="1" min="24" max="24"/>
+    <col width="0.4960666666666667" customWidth="1" min="25" max="25"/>
+    <col width="0.4960666666666667" customWidth="1" min="26" max="26"/>
+    <col width="0.4960666666666667" customWidth="1" min="27" max="27"/>
+    <col width="0.4960666666666667" customWidth="1" min="28" max="28"/>
+    <col width="0.4960666666666667" customWidth="1" min="29" max="29"/>
+    <col width="0.4960666666666667" customWidth="1" min="30" max="30"/>
+    <col width="0.4960666666666667" customWidth="1" min="31" max="31"/>
+    <col width="0.4960666666666667" customWidth="1" min="32" max="32"/>
+    <col width="0.4960666666666667" customWidth="1" min="33" max="33"/>
+    <col width="0.4960666666666667" customWidth="1" min="34" max="34"/>
+    <col width="0.4960666666666667" customWidth="1" min="35" max="35"/>
+    <col width="0.4960666666666667" customWidth="1" min="36" max="36"/>
+    <col width="0.4960666666666667" customWidth="1" min="37" max="37"/>
+    <col width="0.4960666666666667" customWidth="1" min="38" max="38"/>
+    <col width="0.4960666666666667" customWidth="1" min="39" max="39"/>
+    <col width="0.4960666666666667" customWidth="1" min="40" max="40"/>
+    <col width="0.4960666666666667" customWidth="1" min="41" max="41"/>
+    <col width="0.4960666666666667" customWidth="1" min="42" max="42"/>
+    <col width="0.4960666666666667" customWidth="1" min="43" max="43"/>
+    <col width="0.4960666666666667" customWidth="1" min="44" max="44"/>
+    <col width="0.4960666666666667" customWidth="1" min="45" max="45"/>
+    <col width="0.4960666666666667" customWidth="1" min="46" max="46"/>
+    <col width="0.4960666666666667" customWidth="1" min="47" max="47"/>
+    <col width="0.4960666666666667" customWidth="1" min="48" max="48"/>
+    <col width="0.4960666666666667" customWidth="1" min="49" max="49"/>
+    <col width="0.4960666666666667" customWidth="1" min="50" max="50"/>
+    <col width="0.4960666666666667" customWidth="1" min="51" max="51"/>
+    <col width="0.4960666666666667" customWidth="1" min="52" max="52"/>
+    <col width="0.4960666666666667" customWidth="1" min="53" max="53"/>
+    <col width="0.4960666666666667" customWidth="1" min="54" max="54"/>
+    <col width="0.4960666666666667" customWidth="1" min="55" max="55"/>
+    <col width="0.4960666666666667" customWidth="1" min="56" max="56"/>
+    <col width="0.4960666666666667" customWidth="1" min="57" max="57"/>
+    <col width="0.4960666666666667" customWidth="1" min="58" max="58"/>
+    <col width="0.4960666666666667" customWidth="1" min="59" max="59"/>
+    <col width="0.4960666666666667" customWidth="1" min="60" max="60"/>
+    <col width="0.4960666666666667" customWidth="1" min="61" max="61"/>
+    <col width="0.4960666666666667" customWidth="1" min="62" max="62"/>
+    <col width="0.4960666666666667" customWidth="1" min="63" max="63"/>
+    <col width="0.4960666666666667" customWidth="1" min="64" max="64"/>
+    <col width="0.4960666666666667" customWidth="1" min="65" max="65"/>
+    <col width="0.4960666666666667" customWidth="1" min="66" max="66"/>
+    <col width="0.4960666666666667" customWidth="1" min="67" max="67"/>
+    <col width="0.4960666666666667" customWidth="1" min="68" max="68"/>
+    <col width="0.4960666666666667" customWidth="1" min="69" max="69"/>
+    <col width="0.4960666666666667" customWidth="1" min="70" max="70"/>
+    <col width="0.4960666666666667" customWidth="1" min="71" max="71"/>
+    <col width="0.4960666666666667" customWidth="1" min="72" max="72"/>
+    <col width="0.4960666666666667" customWidth="1" min="73" max="73"/>
+    <col width="0.4960666666666667" customWidth="1" min="74" max="74"/>
+    <col width="0.4960666666666667" customWidth="1" min="75" max="75"/>
+    <col width="0.4960666666666667" customWidth="1" min="76" max="76"/>
+    <col width="0.4960666666666667" customWidth="1" min="77" max="77"/>
+    <col width="0.4960666666666667" customWidth="1" min="78" max="78"/>
+    <col width="0.4960666666666667" customWidth="1" min="79" max="79"/>
+    <col width="0.4960666666666667" customWidth="1" min="80" max="80"/>
+    <col width="0.4960666666666667" customWidth="1" min="81" max="81"/>
+    <col width="0.4960666666666667" customWidth="1" min="82" max="82"/>
+    <col width="0.4960666666666667" customWidth="1" min="83" max="83"/>
+    <col width="0.4960666666666667" customWidth="1" min="84" max="84"/>
+    <col width="0.4960666666666667" customWidth="1" min="85" max="85"/>
+    <col width="0.4960666666666667" customWidth="1" min="86" max="86"/>
+    <col width="0.4960666666666667" customWidth="1" min="87" max="87"/>
+    <col width="0.4960666666666667" customWidth="1" min="88" max="88"/>
+    <col width="0.4960666666666667" customWidth="1" min="89" max="89"/>
+    <col width="0.4960666666666667" customWidth="1" min="90" max="90"/>
+    <col width="0.4960666666666667" customWidth="1" min="91" max="91"/>
+    <col width="0.4960666666666667" customWidth="1" min="92" max="92"/>
+    <col width="0.4960666666666667" customWidth="1" min="93" max="93"/>
+    <col width="0.4960666666666667" customWidth="1" min="94" max="94"/>
+    <col width="0.4960666666666667" customWidth="1" min="95" max="95"/>
+    <col width="0.4960666666666667" customWidth="1" min="96" max="96"/>
+    <col width="0.4960666666666667" customWidth="1" min="97" max="97"/>
+    <col width="0.4960666666666667" customWidth="1" min="98" max="98"/>
+    <col width="0.4960666666666667" customWidth="1" min="99" max="99"/>
+    <col width="0.4960666666666667" customWidth="1" min="100" max="100"/>
+    <col width="0.4960666666666667" customWidth="1" min="101" max="101"/>
+    <col width="0.4960666666666667" customWidth="1" min="102" max="102"/>
+    <col width="0.4960666666666667" customWidth="1" min="103" max="103"/>
+    <col width="0.4960666666666667" customWidth="1" min="104" max="104"/>
+    <col width="0.4960666666666667" customWidth="1" min="105" max="105"/>
+    <col width="0.4960666666666667" customWidth="1" min="106" max="106"/>
+    <col width="0.4960666666666667" customWidth="1" min="107" max="107"/>
+    <col width="0.4960666666666667" customWidth="1" min="108" max="108"/>
+    <col width="0.4960666666666667" customWidth="1" min="109" max="109"/>
+    <col width="0.4960666666666667" customWidth="1" min="110" max="110"/>
+    <col width="0.4960666666666667" customWidth="1" min="111" max="111"/>
+    <col width="0.4960666666666667" customWidth="1" min="112" max="112"/>
+    <col width="0.4960666666666667" customWidth="1" min="113" max="113"/>
+    <col width="0.4960666666666667" customWidth="1" min="114" max="114"/>
+    <col width="0.4960666666666667" customWidth="1" min="115" max="115"/>
+    <col width="0.4960666666666667" customWidth="1" min="116" max="116"/>
+    <col width="0.4960666666666667" customWidth="1" min="117" max="117"/>
+    <col width="0.4960666666666667" customWidth="1" min="118" max="118"/>
+    <col width="0.4960666666666667" customWidth="1" min="119" max="119"/>
+    <col width="0.4960666666666667" customWidth="1" min="120" max="120"/>
+    <col width="0.4960666666666667" customWidth="1" min="121" max="121"/>
+    <col width="0.4960666666666667" customWidth="1" min="122" max="122"/>
+    <col width="0.4960666666666667" customWidth="1" min="123" max="123"/>
+    <col width="0.4960666666666667" customWidth="1" min="124" max="124"/>
+    <col width="0.4960666666666667" customWidth="1" min="125" max="125"/>
+    <col width="0.4960666666666667" customWidth="1" min="126" max="126"/>
+    <col width="0.4960666666666667" customWidth="1" min="127" max="127"/>
+    <col width="0.4960666666666667" customWidth="1" min="128" max="128"/>
+    <col width="0.4960666666666667" customWidth="1" min="129" max="129"/>
+    <col width="0.4960666666666667" customWidth="1" min="130" max="130"/>
+    <col width="0.4960666666666667" customWidth="1" min="131" max="131"/>
+    <col width="0.4960666666666667" customWidth="1" min="132" max="132"/>
+    <col width="0.4960666666666667" customWidth="1" min="133" max="133"/>
+    <col width="0.4960666666666667" customWidth="1" min="134" max="134"/>
+    <col width="0.4960666666666667" customWidth="1" min="135" max="135"/>
+    <col width="0.4960666666666667" customWidth="1" min="136" max="136"/>
+    <col width="0.4960666666666667" customWidth="1" min="137" max="137"/>
+    <col width="0.4960666666666667" customWidth="1" min="138" max="138"/>
+    <col width="0.4960666666666667" customWidth="1" min="139" max="139"/>
+    <col width="0.4960666666666667" customWidth="1" min="140" max="140"/>
+    <col width="0.4960666666666667" customWidth="1" min="141" max="141"/>
+    <col width="0.4960666666666667" customWidth="1" min="142" max="142"/>
+    <col width="0.4960666666666667" customWidth="1" min="143" max="143"/>
+    <col width="0.4960666666666667" customWidth="1" min="144" max="144"/>
+    <col width="0.4960666666666667" customWidth="1" min="145" max="145"/>
+    <col width="0.4960666666666667" customWidth="1" min="146" max="146"/>
+    <col width="0.4960666666666667" customWidth="1" min="147" max="147"/>
+    <col width="0.4960666666666667" customWidth="1" min="148" max="148"/>
+    <col width="0.4960666666666667" customWidth="1" min="149" max="149"/>
+    <col width="0.4960666666666667" customWidth="1" min="150" max="150"/>
+    <col width="0.4960666666666667" customWidth="1" min="151" max="151"/>
+    <col width="0.4960666666666667" customWidth="1" min="152" max="152"/>
+    <col width="0.4960666666666667" customWidth="1" min="153" max="153"/>
+    <col width="0.4960666666666667" customWidth="1" min="154" max="154"/>
+    <col width="0.4960666666666667" customWidth="1" min="155" max="155"/>
+    <col width="0.4960666666666667" customWidth="1" min="156" max="156"/>
+    <col width="0.4960666666666667" customWidth="1" min="157" max="157"/>
+    <col width="0.4960666666666667" customWidth="1" min="158" max="158"/>
+    <col width="0.4960666666666667" customWidth="1" min="159" max="159"/>
+    <col width="0.4960666666666667" customWidth="1" min="160" max="160"/>
+    <col width="0.4960666666666667" customWidth="1" min="161" max="161"/>
+    <col width="0.4960666666666667" customWidth="1" min="162" max="162"/>
+    <col width="0.4960666666666667" customWidth="1" min="163" max="163"/>
+    <col width="0.4960666666666667" customWidth="1" min="164" max="164"/>
+    <col width="0.4960666666666667" customWidth="1" min="165" max="165"/>
+    <col width="0.4960666666666667" customWidth="1" min="166" max="166"/>
+    <col width="0.4960666666666667" customWidth="1" min="167" max="167"/>
+    <col width="0.4960666666666667" customWidth="1" min="168" max="168"/>
+    <col width="0.4960666666666667" customWidth="1" min="169" max="169"/>
+    <col width="0.4960666666666667" customWidth="1" min="170" max="170"/>
+    <col width="0.4960666666666667" customWidth="1" min="171" max="171"/>
+    <col width="0.4960666666666667" customWidth="1" min="172" max="172"/>
+    <col width="0.4960666666666667" customWidth="1" min="173" max="173"/>
+    <col width="0.4960666666666667" customWidth="1" min="174" max="174"/>
+    <col width="0.4960666666666667" customWidth="1" min="175" max="175"/>
+    <col width="0.4960666666666667" customWidth="1" min="176" max="176"/>
+    <col width="0.4960666666666667" customWidth="1" min="177" max="177"/>
+    <col width="0.4960666666666667" customWidth="1" min="178" max="178"/>
+    <col width="0.4960666666666667" customWidth="1" min="179" max="179"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>COVID-19 digital certificate</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="I2" t="inlineStr">
+    <row r="1" ht="24" customHeight="1">
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>COVID-19</t>
+        </is>
+      </c>
+      <c r="CJ1" t="inlineStr">
+        <is>
+          <t>digital</t>
+        </is>
+      </c>
+      <c r="DE1" t="inlineStr">
+        <is>
+          <t>certificate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="14.4" customHeight="1">
+      <c r="X2" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="BD2" t="inlineStr">
-        <is>
-          <t>Date of birth</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>VEERA VENKATA S YAGA</t>
-        </is>
-      </c>
-      <c r="BB3" t="inlineStr">
-        <is>
-          <t>15 Apr 1966</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="AZ4" t="inlineStr">
-        <is>
-          <t>Document number</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>1002 3498 6157</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Valid from</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>25 Oct 2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="I8" t="inlineStr">
+      <c r="EW2" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="FG2" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="FL2" t="inlineStr">
+        <is>
+          <t>birth</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="19.2" customHeight="1">
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>VEERA</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>VENKATA</t>
+        </is>
+      </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="BY3" t="inlineStr">
+        <is>
+          <t>YAGA</t>
+        </is>
+      </c>
+      <c r="ER3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="EY3" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
+      <c r="FI3" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="14.4" customHeight="1">
+      <c r="EK4" t="inlineStr">
+        <is>
+          <t>Document</t>
+        </is>
+      </c>
+      <c r="FF4" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="19.2" customHeight="1">
+      <c r="EH5" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="EV5" t="inlineStr">
+        <is>
+          <t>3498</t>
+        </is>
+      </c>
+      <c r="FI5" t="inlineStr">
+        <is>
+          <t>6157</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="14.4" customHeight="1">
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>from</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="19.2" customHeight="1">
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Oct</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="14.4" customHeight="1">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>Vaccinations</t>
         </is>
       </c>
-      <c r="BB8" t="inlineStr">
-        <is>
-          <t>Dates received</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Pfizer Comirnaty</t>
-        </is>
-      </c>
-      <c r="BE9" t="inlineStr">
-        <is>
-          <t>25 Oct 2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="F10" t="inlineStr">
+      <c r="ER8" t="inlineStr">
+        <is>
+          <t>Dates</t>
+        </is>
+      </c>
+      <c r="FD8" t="inlineStr">
+        <is>
+          <t>received</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="14.4" customHeight="1">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>Pfizer</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>Comirnaty</t>
+        </is>
+      </c>
+      <c r="EX9" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="FD9" t="inlineStr">
+        <is>
+          <t>Oct</t>
+        </is>
+      </c>
+      <c r="FK9" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="12" customHeight="1">
+      <c r="P10" t="inlineStr">
         <is>
           <t>Disclaimer</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>This certificate shows your COVID-19 vaccination details as reported to the Australian Immunisation Register by</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>your vaccination provider.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Every effort is made to ensure that the information contained on the Australian Immunisation Register is correct.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>The data is based on information provided by vaccination providers and the accuracy of data is dependent on the</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>quality and timeliness of information provided.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>If any of the details are not correct, please ask your vaccination provider to provide the correct details. They can</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>call us on 1800 653 809 (call charges may apply).</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>If you have any questions about this certificate please call the Australian Immunisation Register on 1800 653 809.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="F19" t="inlineStr">
+    <row r="11" ht="12" customHeight="1">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>This</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>certificate</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>shows</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>your</t>
+        </is>
+      </c>
+      <c r="BD11" t="inlineStr">
+        <is>
+          <t>COVID-19</t>
+        </is>
+      </c>
+      <c r="BU11" t="inlineStr">
+        <is>
+          <t>vaccination</t>
+        </is>
+      </c>
+      <c r="CM11" t="inlineStr">
+        <is>
+          <t>details</t>
+        </is>
+      </c>
+      <c r="CW11" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="DB11" t="inlineStr">
+        <is>
+          <t>reported</t>
+        </is>
+      </c>
+      <c r="DO11" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="DS11" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="DX11" t="inlineStr">
+        <is>
+          <t>Australian</t>
+        </is>
+      </c>
+      <c r="EN11" t="inlineStr">
+        <is>
+          <t>Immunisation</t>
+        </is>
+      </c>
+      <c r="FI11" t="inlineStr">
+        <is>
+          <t>Register</t>
+        </is>
+      </c>
+      <c r="FW11" t="inlineStr">
+        <is>
+          <t>by</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="12" customHeight="1">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>your</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>vaccination</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>provider.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="12" customHeight="1">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Every</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>effort</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>made</t>
+        </is>
+      </c>
+      <c r="AU13" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>ensure</t>
+        </is>
+      </c>
+      <c r="BJ13" t="inlineStr">
+        <is>
+          <t>that</t>
+        </is>
+      </c>
+      <c r="BP13" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="BV13" t="inlineStr">
+        <is>
+          <t>information</t>
+        </is>
+      </c>
+      <c r="CM13" t="inlineStr">
+        <is>
+          <t>contained</t>
+        </is>
+      </c>
+      <c r="DC13" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="DG13" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="DM13" t="inlineStr">
+        <is>
+          <t>Australian</t>
+        </is>
+      </c>
+      <c r="EC13" t="inlineStr">
+        <is>
+          <t>Immunisation</t>
+        </is>
+      </c>
+      <c r="EX13" t="inlineStr">
+        <is>
+          <t>Register</t>
+        </is>
+      </c>
+      <c r="FK13" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="FO13" t="inlineStr">
+        <is>
+          <t>correct.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="12" customHeight="1">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>The</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>based</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>information</t>
+        </is>
+      </c>
+      <c r="BN14" t="inlineStr">
+        <is>
+          <t>provided</t>
+        </is>
+      </c>
+      <c r="CB14" t="inlineStr">
+        <is>
+          <t>by</t>
+        </is>
+      </c>
+      <c r="CF14" t="inlineStr">
+        <is>
+          <t>vaccination</t>
+        </is>
+      </c>
+      <c r="CX14" t="inlineStr">
+        <is>
+          <t>providers</t>
+        </is>
+      </c>
+      <c r="DL14" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="DS14" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="DY14" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="EM14" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="EQ14" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="EX14" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="FB14" t="inlineStr">
+        <is>
+          <t>dependent</t>
+        </is>
+      </c>
+      <c r="FR14" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="FW14" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="12" customHeight="1">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>timeliness</t>
+        </is>
+      </c>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="BA15" t="inlineStr">
+        <is>
+          <t>information</t>
+        </is>
+      </c>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="12" customHeight="1">
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>If</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>any</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>details</t>
+        </is>
+      </c>
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>are</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="BD16" t="inlineStr">
+        <is>
+          <t>correct,</t>
+        </is>
+      </c>
+      <c r="BQ16" t="inlineStr">
+        <is>
+          <t>please</t>
+        </is>
+      </c>
+      <c r="CA16" t="inlineStr">
+        <is>
+          <t>ask</t>
+        </is>
+      </c>
+      <c r="CG16" t="inlineStr">
+        <is>
+          <t>your</t>
+        </is>
+      </c>
+      <c r="CO16" t="inlineStr">
+        <is>
+          <t>vaccination</t>
+        </is>
+      </c>
+      <c r="DG16" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="DT16" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="DW16" t="inlineStr">
+        <is>
+          <t>provide</t>
+        </is>
+      </c>
+      <c r="EI16" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="EO16" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
+      <c r="EZ16" t="inlineStr">
+        <is>
+          <t>details.</t>
+        </is>
+      </c>
+      <c r="FL16" t="inlineStr">
+        <is>
+          <t>They</t>
+        </is>
+      </c>
+      <c r="FT16" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="12" customHeight="1">
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>call</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>809</t>
+        </is>
+      </c>
+      <c r="AZ17" t="inlineStr">
+        <is>
+          <t>(call</t>
+        </is>
+      </c>
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>charges</t>
+        </is>
+      </c>
+      <c r="BT17" t="inlineStr">
+        <is>
+          <t>may</t>
+        </is>
+      </c>
+      <c r="CB17" t="inlineStr">
+        <is>
+          <t>apply).</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="12" customHeight="1">
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>If</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>you</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>have</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>any</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>questions</t>
+        </is>
+      </c>
+      <c r="BC18" t="inlineStr">
+        <is>
+          <t>about</t>
+        </is>
+      </c>
+      <c r="BL18" t="inlineStr">
+        <is>
+          <t>this</t>
+        </is>
+      </c>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>certificate</t>
+        </is>
+      </c>
+      <c r="CH18" t="inlineStr">
+        <is>
+          <t>please</t>
+        </is>
+      </c>
+      <c r="CS18" t="inlineStr">
+        <is>
+          <t>call</t>
+        </is>
+      </c>
+      <c r="CX18" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="DD18" t="inlineStr">
+        <is>
+          <t>Australian</t>
+        </is>
+      </c>
+      <c r="DT18" t="inlineStr">
+        <is>
+          <t>Immunisation</t>
+        </is>
+      </c>
+      <c r="EO18" t="inlineStr">
+        <is>
+          <t>Register</t>
+        </is>
+      </c>
+      <c r="FB18" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="FG18" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
+      </c>
+      <c r="FO18" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="FV18" t="inlineStr">
+        <is>
+          <t>809.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="12" customHeight="1">
+      <c r="O19" t="inlineStr">
         <is>
           <t>Version</t>
         </is>
       </c>
-      <c r="BG19" t="inlineStr">
-        <is>
-          <t>Date generated</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="BI20" t="inlineStr">
-        <is>
-          <t>10 Jan 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="F21" t="inlineStr">
+      <c r="FF19" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="FN19" t="inlineStr">
+        <is>
+          <t>generated</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="12" customHeight="1">
+      <c r="FK20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="FP20" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+      <c r="FV20" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="12" customHeight="1">
+      <c r="O21" t="inlineStr">
         <is>
           <t>v2022.12.03</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="I7:T7"/>
-    <mergeCell ref="BB8:BM8"/>
-    <mergeCell ref="I6:P6"/>
-    <mergeCell ref="BE9:BM9"/>
-    <mergeCell ref="F14:BO14"/>
-    <mergeCell ref="F13:BN13"/>
-    <mergeCell ref="F11:BO11"/>
-    <mergeCell ref="AY5:BM5"/>
-    <mergeCell ref="T1:AZ1"/>
-    <mergeCell ref="F15:AE15"/>
-    <mergeCell ref="AZ4:BM4"/>
-    <mergeCell ref="I3:AH3"/>
-    <mergeCell ref="BI20:BP20"/>
-    <mergeCell ref="I9:T9"/>
-    <mergeCell ref="F18:BO18"/>
-    <mergeCell ref="F16:BN16"/>
-    <mergeCell ref="BD2:BM2"/>
-    <mergeCell ref="BG19:BP19"/>
-    <mergeCell ref="BB3:BM3"/>
-    <mergeCell ref="F17:AG17"/>
-    <mergeCell ref="F12:T12"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tests/output/COVID-19 Digital Certificate VEERA VENKATA S YAGA_output.xlsx
+++ b/tests/output/COVID-19 Digital Certificate VEERA VENKATA S YAGA_output.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Page_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="All_Text" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Table_1_Page_1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +414,52 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>COVID-19 digital certificate
+Name Date of birth
+VEERA VENKATA S YAGA 15 Apr 1966
+Document number
+1002 3498 6157
+Valid from
+25 Oct 2022
+Vaccinations Dates received
+Pfizer Comirnaty 25 Oct 2022
+Disclaimer
+This certificate shows your COVID-19 vaccination details as reported to the Australian Immunisation Register by
+your vaccination provider.
+Every effort is made to ensure that the information contained on the Australian Immunisation Register is correct.
+The data is based on information provided by vaccination providers and the accuracy of data is dependent on the
+quality and timeliness of information provided.
+If any of the details are not correct, please ask your vaccination provider to provide the correct details. They can
+call us on 1800 653 809 (call charges may apply).
+If you have any questions about this certificate please call the Australian Immunisation Register on 1800 653 809.
+Version Date generated
+v2022.12.03 10 Jan 2023\n\n--- End of Page 1 ---\n\n</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,213 +469,17 @@
   <cols>
     <col width="13" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="13" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="13" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="13" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="13" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="13" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="13" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="13" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="13" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="13" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="13" bestFit="1" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>COVID-19 digital certificate</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Date of birth</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>VEERA VENKATA S YAGA</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>15 Apr 1966</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Document number</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1002 3498 6157</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Valid from</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>25 Oct 2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Vaccinations</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Dates received</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Pfizer Comirnaty</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>25 Oct 2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Disclaimer</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>This certificate shows your COVID-19 vaccination details as reported to the Australian Immunisation Register by</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>your vaccination provider.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Every effort is made to ensure that the information contained on the Australian Immunisation Register is correct.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>The data is based on information provided by vaccination providers and the accuracy of data is dependent on the</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>quality and timeliness of information provided.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>If any of the details are not correct, please ask your vaccination provider to provide the correct details. They can</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>call us on 1800 653 809 (call charges may apply).</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>If you have any questions about this certificate please call the Australian Immunisation Register on 1800 653 809.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Version</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Date generated</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>10 Jan 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>v2022.12.03</t>
-        </is>
-      </c>
+      <c r="B1" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="J8:K8"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tests/output/COVID-19 Digital Certificate VEERA VENKATA S YAGA_output.xlsx
+++ b/tests/output/COVID-19 Digital Certificate VEERA VENKATA S YAGA_output.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="All_Text" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Table_1_Page_1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="All_Text_Fallback" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Table_pdfplumber_1_P1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -444,7 +444,7 @@
 call us on 1800 653 809 (call charges may apply).
 If you have any questions about this certificate please call the Australian Immunisation Register on 1800 653 809.
 Version Date generated
-v2022.12.03 10 Jan 2023\n\n--- End of Page 1 ---\n\n</t>
+v2022.12.03 10 Jan 2023</t>
         </is>
       </c>
     </row>
